--- a/analysis/wsc_val_predictions/right_wrong_comp/right_4_v_0.xlsx
+++ b/analysis/wsc_val_predictions/right_wrong_comp/right_4_v_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Documents\NYU\2020 Spring\NLU\Project\Projects\WSC\wsc-trick\analysis\wsc_val_predictions\right_wrong_comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FA68BB-D12A-4D1A-B229-697A20BAE65A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C852842-AC61-499D-825E-01313D0D0FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5225,7 +5225,7 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
